--- a/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2064309251451905</v>
+        <v>0.2069869657340647</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.016063406124499</v>
+        <v>1.018040574004894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4566524990755358</v>
+        <v>0.4533487179295481</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3750577774610828</v>
+        <v>-0.4115827201809318</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5462381329588309</v>
+        <v>0.3902809047728287</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4571362137386101</v>
+        <v>0.4407626234038402</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0</v>
+        <v>0.01698208278037108</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.105529407996969</v>
+        <v>1.155361358986868</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.71256482845136</v>
+        <v>1.698195719172701</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.155007968857756</v>
+        <v>1.866017017469528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.200567391319558</v>
+        <v>6.301217570174458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.103951463608956</v>
+        <v>3.18572805790809</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.445295708751839</v>
+        <v>1.212469908874348</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.511225113915503</v>
+        <v>5.592163201001242</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.850446359604941</v>
+        <v>1.984879033001796</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.32444295844042</v>
+        <v>1.173226278595605</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.796067054100998</v>
+        <v>4.905701137125098</v>
       </c>
     </row>
     <row r="7">
@@ -859,31 +859,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1975230855593857</v>
+        <v>0.1228355776754508</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3555824152540652</v>
+        <v>-0.2961373698278818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2972479455164598</v>
+        <v>-0.3902715739770067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4355640189212535</v>
+        <v>-0.4592218690501189</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2798617228776552</v>
+        <v>-0.264792253027663</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9862566620720638</v>
+        <v>0.7593176456330193</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1684383644870023</v>
+        <v>0.123008346631681</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.1842309323487223</v>
+        <v>-0.09655043005019603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5437478801900044</v>
+        <v>0.5391539964279656</v>
       </c>
     </row>
     <row r="12">
@@ -894,31 +894,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.317503075543085</v>
+        <v>2.443344825996313</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.372499122529089</v>
+        <v>1.285462186140365</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.453559616239064</v>
+        <v>2.090303299990025</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.660171240224758</v>
+        <v>1.50498931875214</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.709388379136731</v>
+        <v>1.68375315978171</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.664790673947943</v>
+        <v>4.637325184993127</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.671113490023509</v>
+        <v>1.777254649317448</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.086240142875262</v>
+        <v>1.195154697173602</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.780172168424706</v>
+        <v>2.576210866137632</v>
       </c>
     </row>
     <row r="13">
@@ -964,27 +964,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.272461102534562</v>
-      </c>
-      <c r="D14" s="6" t="inlineStr"/>
+        <v>-0.1893838611575009</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.7284291963266587</v>
+      </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.7859099164237391</v>
+        <v>-0.8720679515393815</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5638871750504515</v>
+        <v>-0.558104319012023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4299797849959202</v>
+        <v>0.1334112421314539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05766263014252176</v>
+        <v>-0.1049978787610955</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3289242582459592</v>
+        <v>-0.2896938520875351</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5574185811612662</v>
+        <v>0.47177527300072</v>
       </c>
     </row>
     <row r="15">
@@ -995,21 +997,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20.93947122632821</v>
-      </c>
-      <c r="D15" s="6" t="inlineStr"/>
+        <v>18.05264801020421</v>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
       <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="inlineStr"/>
+      <c r="F15" s="6" t="n">
+        <v>9.237490564502066</v>
+      </c>
       <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>20.36065899759234</v>
+      </c>
       <c r="I15" s="6" t="n">
-        <v>8.898393415086124</v>
+        <v>6.597048674438914</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5.13742435416799</v>
+        <v>4.749437787533145</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11.66896345782618</v>
+        <v>13.07572473218201</v>
       </c>
     </row>
     <row r="16">
@@ -1048,7 +1058,7 @@
         <v>-0.1021227062128174</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.296540143553891</v>
+        <v>1.29654014355389</v>
       </c>
     </row>
     <row r="17">
@@ -1059,31 +1069,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7965379645740533</v>
+        <v>-0.8224436111524092</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.65427372732794</v>
+        <v>-1.605186717822405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7630379683239402</v>
+        <v>-0.9211330326283351</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5201343314686615</v>
+        <v>0.4954993921287261</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.9326798515238618</v>
+        <v>-1.00556619456817</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6868337256852378</v>
+        <v>0.8151106389317972</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1886587827248243</v>
+        <v>0.2653994457278384</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.8852157759943486</v>
+        <v>-0.8306817307752552</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3750311500576132</v>
+        <v>0.2827217738180796</v>
       </c>
     </row>
     <row r="18">
@@ -1094,31 +1104,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.922071242378872</v>
+        <v>1.812868177894789</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3989268834120847</v>
+        <v>0.3563283671258471</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.856385235800304</v>
+        <v>1.695241239513603</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.618438933157035</v>
+        <v>3.538370440542899</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.394830922177094</v>
+        <v>1.317909495343327</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.549171685067891</v>
+        <v>3.509973691772476</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.330787694193715</v>
+        <v>2.187091107331357</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5922607680674677</v>
+        <v>0.66292567213012</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.208433944647877</v>
+        <v>2.216432229692431</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1163,7 @@
         <v>-0.107068460227127</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.359330965081204</v>
+        <v>1.359330965081203</v>
       </c>
     </row>
     <row r="20">
@@ -1164,29 +1174,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6694021551363661</v>
+        <v>-0.6523412599530299</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.5943853150836037</v>
+        <v>-0.6187580180541212</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1881826779983775</v>
+        <v>0.2079948446618737</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6126908757846672</v>
+        <v>-0.6067505326563671</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3006674337805939</v>
+        <v>0.2219127801113255</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08372149486375138</v>
+        <v>0.09489143111362236</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6274690496285692</v>
+        <v>-0.6171346540616102</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2022815475480766</v>
+        <v>0.1227176019914017</v>
       </c>
     </row>
     <row r="21">
@@ -1197,29 +1207,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.002375820039029</v>
+        <v>6.975258071764325</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>5.854093246205561</v>
+        <v>6.155763414931204</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.423693640603831</v>
+        <v>7.652612751900936</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.828745744436271</v>
+        <v>2.829146799414727</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.335495762075401</v>
+        <v>6.075971656770016</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.901096059935354</v>
+        <v>3.909176216145616</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.040241583832287</v>
+        <v>1.414492242191566</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.811907898750594</v>
+        <v>3.710139048390852</v>
       </c>
     </row>
     <row r="22">
@@ -1269,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.260090317502101</v>
+        <v>-1.50205521952501</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.21981103988532</v>
+        <v>-2.14229874210106</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4534306531918058</v>
+        <v>-0.478458798995461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.099119450680009</v>
+        <v>-1.246725719285378</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.06857143467628</v>
+        <v>-1.970028491819893</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5427191321999588</v>
+        <v>-0.5547210396595084</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7700832125770602</v>
+        <v>-0.7656007385952572</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.595838709305255</v>
+        <v>-1.727660561387417</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01392826367509612</v>
+        <v>-0.06939099219157079</v>
       </c>
     </row>
     <row r="24">
@@ -1304,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.134043116756022</v>
+        <v>2.1506571885879</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7264470953894907</v>
+        <v>0.7354791292258211</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.992382497560139</v>
+        <v>2.908333506805003</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.383258076844216</v>
+        <v>2.259280967681099</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9406641403637539</v>
+        <v>0.8543117261271252</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.536148293435463</v>
+        <v>2.489725858799077</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.745252345805277</v>
+        <v>1.710051435447909</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4214038646696519</v>
+        <v>0.4400579279018549</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.362643961848845</v>
+        <v>2.349045390169178</v>
       </c>
     </row>
     <row r="25">
@@ -1345,7 +1355,7 @@
         <v>-0.3500398005780124</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.734411218741815</v>
+        <v>0.7344112187418146</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3384278945807249</v>
@@ -1363,7 +1373,7 @@
         <v>-0.3029338724945918</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6423626627706027</v>
+        <v>0.6423626627706029</v>
       </c>
     </row>
     <row r="26">
@@ -1374,31 +1384,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5640229642419956</v>
+        <v>-0.6445710965655084</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8387799957595772</v>
+        <v>-0.8215861648051149</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2323750018810753</v>
+        <v>-0.2931445173469045</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4150528122841975</v>
+        <v>-0.4931310715269529</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7216307171303618</v>
+        <v>-0.7039159242731162</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2002374321904409</v>
+        <v>-0.2390948302686904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3321669851211722</v>
+        <v>-0.3363185519133491</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6606133454083547</v>
+        <v>-0.6752470939564043</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02812510288390562</v>
+        <v>-0.03963338430976042</v>
       </c>
     </row>
     <row r="27">
@@ -1409,31 +1419,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.335568070579026</v>
+        <v>2.662796803599766</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.130038681917924</v>
+        <v>1.008121316253326</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.788070794883432</v>
+        <v>3.011630512768395</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.249336948598065</v>
+        <v>2.034187935135008</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.003107265619612</v>
+        <v>0.8142951787084594</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.485886831742822</v>
+        <v>2.433437315704118</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.341050648551961</v>
+        <v>1.382588880332898</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3612515124674983</v>
+        <v>0.4112669606340402</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.012721026132709</v>
+        <v>1.912999397002894</v>
       </c>
     </row>
     <row r="28">
@@ -1463,7 +1473,7 @@
         <v>0.8132020618575788</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6253230446155562</v>
+        <v>0.6253230446155569</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.285406552136753</v>
@@ -1483,31 +1493,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5196628769380079</v>
+        <v>0.3723747390284616</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.3543188676169469</v>
+        <v>-0.2074552746774954</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7317823110875179</v>
+        <v>0.8758127279078635</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.233429012195617</v>
+        <v>-1.173162676109925</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9921238834773065</v>
+        <v>-1.017433954239828</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.277598253588226</v>
+        <v>-1.089938448185509</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.02270826340241477</v>
+        <v>0.1338423007487768</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2331501424123043</v>
+        <v>-0.4190539897874566</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2261279207331475</v>
+        <v>0.2352829934950335</v>
       </c>
     </row>
     <row r="30">
@@ -1518,31 +1528,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.939994270335917</v>
+        <v>3.705216957728167</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.486649469149199</v>
+        <v>2.498557758241948</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.568536644023658</v>
+        <v>3.642659947518619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.54784486115448</v>
+        <v>2.610567708726042</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.268398406892555</v>
+        <v>2.875740066218726</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.980063041523646</v>
+        <v>2.107750013118188</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.539706042401034</v>
+        <v>2.624341148774081</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.296926327138963</v>
+        <v>2.214066701018612</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.349665852310668</v>
+        <v>2.419112852189474</v>
       </c>
     </row>
     <row r="31">
@@ -1568,7 +1578,7 @@
         <v>0.5100400053366566</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3922023614700458</v>
+        <v>0.3922023614700462</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.206469036039029</v>
@@ -1588,31 +1598,29 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04667877586715054</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-0.9532659929891752</v>
-      </c>
+        <v>-0.3084317950080709</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>0.1002689527792993</v>
+        <v>0.3220534598413724</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5337946764161776</v>
+        <v>-0.4964661180321113</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5392468048759096</v>
+        <v>-0.4798719132512835</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4629681226982939</v>
+        <v>-0.4494185448782585</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0459377009199387</v>
+        <v>-0.04031996761317485</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3161964245504208</v>
+        <v>-0.4079722791479022</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.07803447402199415</v>
+        <v>0.0175829704545773</v>
       </c>
     </row>
     <row r="33">
@@ -1626,22 +1634,22 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>3.497031003472875</v>
+        <v>4.72255996702085</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>5.973626292033651</v>
+        <v>4.191359980201613</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.859559247573352</v>
+        <v>2.954202978960776</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>4.678080356544533</v>
+        <v>4.344411879258169</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>3.693077787936435</v>
+        <v>3.30920970068622</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>4.39126977660266</v>
+        <v>4.117018212572009</v>
       </c>
     </row>
     <row r="34">
@@ -1691,31 +1699,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.3141454401161171</v>
+        <v>-0.3547194320942744</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.359135157947308</v>
+        <v>-1.293446012980105</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.3045478641862633</v>
+        <v>-0.5169020314605618</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.860281980292404</v>
+        <v>-1.863839244771299</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.6092838520432931</v>
+        <v>-0.7914236767403123</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.4002582055470922</v>
+        <v>0.252498974401232</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.7401221301859398</v>
+        <v>-0.5267016624776164</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.3347823600978127</v>
+        <v>-0.5238349003432912</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.4709619702846143</v>
+        <v>0.4619781519445911</v>
       </c>
     </row>
     <row r="36">
@@ -1726,31 +1734,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.579158990025562</v>
+        <v>4.776711078540022</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.267390534931285</v>
+        <v>2.270629184559012</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.390209545018965</v>
+        <v>3.271515527953516</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.747843763384262</v>
+        <v>1.665136438109831</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.642306598275712</v>
+        <v>3.63618639875622</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.805261750657976</v>
+        <v>3.660371364202663</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.223386622448689</v>
+        <v>2.488020705466495</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.448721077811677</v>
+        <v>2.277138768164366</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.009207247787273</v>
+        <v>2.911456779833809</v>
       </c>
     </row>
     <row r="37">
@@ -1785,7 +1793,7 @@
         <v>0.7123767300348516</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.351309941206417</v>
+        <v>1.351309941206418</v>
       </c>
     </row>
     <row r="38">
@@ -1796,31 +1804,29 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4129357279115258</v>
+        <v>-0.4553418000707875</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7101127570344237</v>
+        <v>-0.7391221426064087</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3412154230321913</v>
-      </c>
-      <c r="F38" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.3577260746353879</v>
+      </c>
+      <c r="F38" s="6" t="inlineStr"/>
       <c r="G38" s="6" t="n">
-        <v>-0.4651888036550681</v>
+        <v>-0.4901617165012946</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04256395837459188</v>
+        <v>-0.04449649375213301</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4393825997239649</v>
+        <v>-0.3297119974081231</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2474323688426417</v>
+        <v>-0.3142360429432432</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1569220566256351</v>
+        <v>0.2015521812648229</v>
       </c>
     </row>
     <row r="39">
@@ -1831,31 +1837,29 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>10.87528885199672</v>
+        <v>9.054528012892257</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>5.192330341441721</v>
+        <v>5.302886015829785</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>8.640165699779935</v>
-      </c>
-      <c r="F39" s="6" t="n">
-        <v>4.044418939333299</v>
-      </c>
+        <v>7.046654898813812</v>
+      </c>
+      <c r="F39" s="6" t="inlineStr"/>
       <c r="G39" s="6" t="n">
-        <v>6.139812477414393</v>
+        <v>6.189066867501199</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>7.063415911263405</v>
+        <v>8.2764005427337</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.653500339954045</v>
+        <v>3.470085451363624</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.431991923173709</v>
+        <v>3.25764999043687</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4.14267129844987</v>
+        <v>4.057756020578277</v>
       </c>
     </row>
     <row r="40">
@@ -1876,7 +1880,7 @@
         <v>-2.659841464321218</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.1970101811551862</v>
+        <v>-0.1970101811551859</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.3191576616268222</v>
@@ -1885,7 +1889,7 @@
         <v>0.3301168672460758</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.462710241282393</v>
+        <v>2.462710241282391</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.2461455274872383</v>
@@ -1894,7 +1898,7 @@
         <v>-0.8334533159998727</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>1.413973259500163</v>
+        <v>1.413973259500162</v>
       </c>
     </row>
     <row r="41">
@@ -1905,31 +1909,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.846850652654894</v>
+        <v>-3.506596910187559</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.365719815444219</v>
+        <v>-6.519118503098379</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.142484054849058</v>
+        <v>-3.847151737999142</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.414519499022792</v>
+        <v>-2.133090543288005</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.199480626699675</v>
+        <v>-2.198542485676643</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.1374267911026189</v>
+        <v>0.02776641588525178</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.631203941561823</v>
+        <v>-1.558413413265123</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.714268980262603</v>
+        <v>-2.729884215893122</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.4918522068190903</v>
+        <v>-0.3509599728909543</v>
       </c>
     </row>
     <row r="42">
@@ -1940,31 +1944,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.862716919145406</v>
+        <v>3.857038977896442</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.681833773580333</v>
+        <v>-0.6494648626707739</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.340842294126059</v>
+        <v>2.285809982218658</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.690619886023425</v>
+        <v>2.789884579462512</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.764346544568342</v>
+        <v>2.752656285434588</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.579717787515069</v>
+        <v>4.460641881396076</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.211029749487838</v>
+        <v>2.261385522696886</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.9467733872256536</v>
+        <v>0.9500707360620886</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.001505675072478</v>
+        <v>3.196415067780153</v>
       </c>
     </row>
     <row r="43">
@@ -1981,7 +1985,7 @@
         <v>-0.8064872585516459</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.05973521468775075</v>
+        <v>-0.05973521468775065</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1464242253680093</v>
@@ -1990,7 +1994,7 @@
         <v>0.15145212657918</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.129850486895949</v>
+        <v>1.129850486895948</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.09426057104649076</v>
@@ -1999,7 +2003,7 @@
         <v>-0.3191680397719696</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5414761269300876</v>
+        <v>0.5414761269300874</v>
       </c>
     </row>
     <row r="44">
@@ -2010,31 +2014,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8076119124002342</v>
+        <v>-0.7340074601112363</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7045827552988007</v>
+        <v>-0.6674191503306742</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.6366027700550871</v>
+        <v>-0.6325916920675304</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6015638370486555</v>
+        <v>-0.6567885564068635</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06778620289009922</v>
+        <v>-0.1153596270829663</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4915809419263207</v>
+        <v>-0.4722897011933661</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.733674764885668</v>
+        <v>-0.7273758796011354</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1593430515877292</v>
+        <v>-0.1500525010097261</v>
       </c>
     </row>
     <row r="45">
@@ -2045,31 +2049,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.050955346892637</v>
+        <v>2.557165732726275</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3487291697884597</v>
+        <v>0.004460717629924516</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.507901414333956</v>
+        <v>1.55422412118076</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3.063684609802234</v>
+        <v>3.189560469657006</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>3.024888377922201</v>
+        <v>3.772607321915778</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.792500554589804</v>
+        <v>4.045392703457634</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.368663235775734</v>
+        <v>1.376918371092811</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.590368791351246</v>
+        <v>0.6258458508150189</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.922784887683004</v>
+        <v>2.094795088662726</v>
       </c>
     </row>
     <row r="46">
@@ -2090,7 +2094,7 @@
         <v>0.0321494777275293</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1.387898270262616</v>
+        <v>1.387898270262615</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>0.9174812925105629</v>
@@ -2119,31 +2123,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.3365591547760729</v>
+        <v>0.3671717937326975</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4657806298345618</v>
+        <v>-0.4869755654157078</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.7422289405625032</v>
+        <v>0.7326969500821252</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.3240988114895507</v>
+        <v>0.2497726612809422</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.09823454458407373</v>
+        <v>-0.1204629261842433</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.264420201297942</v>
+        <v>1.241655223613519</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.4954359198848563</v>
+        <v>0.4720955086377774</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.1580834171469775</v>
+        <v>-0.1590177192944769</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.221437621988351</v>
+        <v>1.229073913584931</v>
       </c>
     </row>
     <row r="48">
@@ -2154,31 +2158,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.548772870854975</v>
+        <v>1.606231263633577</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.5660880052937785</v>
+        <v>0.5013882664974337</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.086535504701037</v>
+        <v>2.034523063986398</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.552831436118734</v>
+        <v>1.519130614693895</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.022063810025235</v>
+        <v>0.9921712371960484</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.497017917302322</v>
+        <v>2.485666037210346</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.32441114395738</v>
+        <v>1.356771695483335</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.594720356617075</v>
+        <v>0.6333590360448057</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.075037248103896</v>
+        <v>2.109160522566563</v>
       </c>
     </row>
     <row r="49">
@@ -2224,31 +2228,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2297309727587087</v>
+        <v>0.2858458684967111</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4084957792821344</v>
+        <v>-0.4153193526092069</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5781465654683897</v>
+        <v>0.5864366235409936</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2169945788355441</v>
+        <v>0.1403086720859903</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.0745967232233759</v>
+        <v>-0.08383364146650064</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8265520947998213</v>
+        <v>0.8106577504515844</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4007700987428938</v>
+        <v>0.3769668569266409</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.1336904475930313</v>
+        <v>-0.1235072897418417</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.9395694900892014</v>
+        <v>1.016606148653925</v>
       </c>
     </row>
     <row r="51">
@@ -2259,31 +2263,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.258587563287703</v>
+        <v>2.404356265737824</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.887176880499608</v>
+        <v>0.7287825914619346</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>3.090925616396044</v>
+        <v>2.989531686834448</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.726155267859249</v>
+        <v>1.667572931890311</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.15210933292088</v>
+        <v>1.043769026531713</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>2.743192848556267</v>
+        <v>2.755352873747372</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.574305963787332</v>
+        <v>1.585285489965642</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.6721200890437954</v>
+        <v>0.737279199669602</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2.371290258740879</v>
+        <v>2.486022943208897</v>
       </c>
     </row>
     <row r="52">
